--- a/Documents/Tableau de travail.xlsx
+++ b/Documents/Tableau de travail.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SandBox\Bataille-Navale\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B6294AF-5EF5-495E-B8C3-C8046F02A8F8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{698D30F1-E86C-4AD9-9CE6-1E9DAFE97B69}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="56">
   <si>
     <t>Date</t>
   </si>
@@ -176,6 +176,33 @@
   </si>
   <si>
     <t>Colonne1</t>
+  </si>
+  <si>
+    <t>ecouter le prof</t>
+  </si>
+  <si>
+    <t>Le prof a parlé sur Les MCD</t>
+  </si>
+  <si>
+    <t>faire le MCD,Scénario,</t>
+  </si>
+  <si>
+    <t>j'ai commencé le MCD</t>
+  </si>
+  <si>
+    <t>j'ai continuer le MCD</t>
+  </si>
+  <si>
+    <t>j'ai continuer le MCD et commencer le Scénario</t>
+  </si>
+  <si>
+    <t>j'ai continuer le MCD et continuer le Scénario</t>
+  </si>
+  <si>
+    <t>j'ai fini le MCD et Le scénario</t>
+  </si>
+  <si>
+    <t>j'ai commencé le code de la bataille navale ,j'ai fait le menu</t>
   </si>
 </sst>
 </file>
@@ -727,7 +754,7 @@
   <dimension ref="A1:O28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="86" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -740,7 +767,7 @@
     <col min="6" max="6" width="23.88671875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="23.6640625" customWidth="1"/>
     <col min="8" max="8" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="48.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="52.33203125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10.6640625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="10.109375" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="14.88671875" bestFit="1" customWidth="1"/>
@@ -783,25 +810,42 @@
       </c>
     </row>
     <row r="2" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="6">
-        <v>44244</v>
-      </c>
-      <c r="B2" s="7">
-        <v>0.5625</v>
-      </c>
+      <c r="A2" s="6"/>
+      <c r="B2" s="7"/>
       <c r="C2" s="7"/>
-      <c r="D2" s="7">
-        <f>Tableau1[[#This Row],[Heure de fin]]-Tableau1[[#This Row],[Heure de début]]</f>
-        <v>-0.5625</v>
-      </c>
+      <c r="D2" s="7"/>
     </row>
     <row r="3" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="6"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
+      <c r="A3" s="6">
+        <v>44245</v>
+      </c>
+      <c r="B3" s="7">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C3" s="7">
+        <v>0.35416666666666669</v>
+      </c>
       <c r="D3" s="7">
         <f>Tableau1[[#This Row],[Heure de fin]]-Tableau1[[#This Row],[Heure de début]]</f>
-        <v>0</v>
+        <v>2.083333333333337E-2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J3" t="s">
+        <v>15</v>
       </c>
       <c r="M3" s="1" t="s">
         <v>38</v>
@@ -811,12 +855,36 @@
       </c>
     </row>
     <row r="4" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="6"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
+      <c r="A4" s="6">
+        <v>44245</v>
+      </c>
+      <c r="B4" s="7">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="C4" s="7">
+        <v>0.36458333333333331</v>
+      </c>
       <c r="D4" s="7">
         <f>Tableau1[[#This Row],[Heure de fin]]-Tableau1[[#This Row],[Heure de début]]</f>
-        <v>0</v>
+        <v>1.041666666666663E-2</v>
+      </c>
+      <c r="E4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" t="s">
+        <v>49</v>
+      </c>
+      <c r="G4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I4" t="s">
+        <v>50</v>
+      </c>
+      <c r="J4" t="s">
+        <v>16</v>
       </c>
       <c r="M4" s="1" t="s">
         <v>39</v>
@@ -826,12 +894,36 @@
       </c>
     </row>
     <row r="5" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="6"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
+      <c r="A5" s="6">
+        <v>44245</v>
+      </c>
+      <c r="B5" s="7">
+        <v>0.36805555555555558</v>
+      </c>
+      <c r="C5" s="7">
+        <v>0.39930555555555558</v>
+      </c>
       <c r="D5" s="7">
         <f>Tableau1[[#This Row],[Heure de fin]]-Tableau1[[#This Row],[Heure de début]]</f>
-        <v>0</v>
+        <v>3.125E-2</v>
+      </c>
+      <c r="E5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" t="s">
+        <v>49</v>
+      </c>
+      <c r="G5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5" t="s">
+        <v>24</v>
+      </c>
+      <c r="I5" t="s">
+        <v>51</v>
+      </c>
+      <c r="J5" t="s">
+        <v>16</v>
       </c>
       <c r="M5" s="9" t="s">
         <v>40</v>
@@ -842,37 +934,109 @@
       <c r="O5" s="4"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A6" s="6"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
+      <c r="A6" s="6">
+        <v>44245</v>
+      </c>
+      <c r="B6" s="7">
+        <v>0.40972222222222227</v>
+      </c>
+      <c r="C6" s="7">
+        <v>0.44097222222222227</v>
+      </c>
       <c r="D6" s="7">
         <f>Tableau1[[#This Row],[Heure de fin]]-Tableau1[[#This Row],[Heure de début]]</f>
-        <v>0</v>
+        <v>3.125E-2</v>
+      </c>
+      <c r="E6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" t="s">
+        <v>49</v>
+      </c>
+      <c r="G6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H6" t="s">
+        <v>24</v>
+      </c>
+      <c r="I6" t="s">
+        <v>52</v>
+      </c>
+      <c r="J6" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="6"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
+      <c r="A7" s="6">
+        <v>44245</v>
+      </c>
+      <c r="B7" s="7">
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="C7" s="7">
+        <v>0.47569444444444442</v>
+      </c>
       <c r="D7" s="7">
         <f>Tableau1[[#This Row],[Heure de fin]]-Tableau1[[#This Row],[Heure de début]]</f>
-        <v>0</v>
+        <v>3.125E-2</v>
+      </c>
+      <c r="E7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" t="s">
+        <v>49</v>
+      </c>
+      <c r="G7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H7" t="s">
+        <v>24</v>
+      </c>
+      <c r="I7" t="s">
+        <v>53</v>
+      </c>
+      <c r="J7" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="6"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
+      <c r="A8" s="6">
+        <v>44245</v>
+      </c>
+      <c r="B8" s="7">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="C8" s="7">
+        <v>0.51041666666666663</v>
+      </c>
       <c r="D8" s="7">
         <f>Tableau1[[#This Row],[Heure de fin]]-Tableau1[[#This Row],[Heure de début]]</f>
-        <v>0</v>
+        <v>3.1249999999999944E-2</v>
+      </c>
+      <c r="E8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" t="s">
+        <v>49</v>
+      </c>
+      <c r="G8" t="s">
+        <v>10</v>
+      </c>
+      <c r="H8" t="s">
+        <v>24</v>
+      </c>
+      <c r="I8" t="s">
+        <v>53</v>
+      </c>
+      <c r="J8" t="s">
+        <v>16</v>
       </c>
       <c r="M8" s="18" t="s">
         <v>44</v>
       </c>
       <c r="N8" s="9">
         <f>COUNTIF(Tableau1[Terminé],"OUI")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -888,25 +1052,73 @@
       </c>
       <c r="N9" s="9">
         <f>COUNTIF(Tableau1[Terminé],"NON")</f>
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A10" s="6"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
+      <c r="A10" s="6">
+        <v>44246</v>
+      </c>
+      <c r="B10" s="7">
+        <v>0.5625</v>
+      </c>
+      <c r="C10" s="7">
+        <v>0.59375</v>
+      </c>
       <c r="D10" s="7">
         <f>Tableau1[[#This Row],[Heure de fin]]-Tableau1[[#This Row],[Heure de début]]</f>
-        <v>0</v>
+        <v>3.125E-2</v>
+      </c>
+      <c r="E10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" t="s">
+        <v>49</v>
+      </c>
+      <c r="G10" t="s">
+        <v>10</v>
+      </c>
+      <c r="H10" t="s">
+        <v>24</v>
+      </c>
+      <c r="I10" t="s">
+        <v>55</v>
+      </c>
+      <c r="J10" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A11" s="6"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
+      <c r="A11" s="6">
+        <v>44246</v>
+      </c>
+      <c r="B11" s="7">
+        <v>0.59722222222222221</v>
+      </c>
+      <c r="C11" s="7">
+        <v>0.62847222222222221</v>
+      </c>
       <c r="D11" s="7">
         <f>Tableau1[[#This Row],[Heure de fin]]-Tableau1[[#This Row],[Heure de début]]</f>
-        <v>0</v>
+        <v>3.125E-2</v>
+      </c>
+      <c r="E11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" t="s">
+        <v>49</v>
+      </c>
+      <c r="G11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H11" t="s">
+        <v>24</v>
+      </c>
+      <c r="I11" t="s">
+        <v>54</v>
+      </c>
+      <c r="J11" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
@@ -1044,7 +1256,7 @@
       </c>
       <c r="N21" s="15">
         <f>SUMIF(Tableau1[Module],M21,Tableau1[Colonne1])</f>
-        <v>0</v>
+        <v>0.21874999999999994</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.3">

--- a/Documents/Tableau de travail.xlsx
+++ b/Documents/Tableau de travail.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SandBox\Bataille-Navale\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{698D30F1-E86C-4AD9-9CE6-1E9DAFE97B69}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{580B5419-6D39-49BA-9C1D-F388E28CA01D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="64">
   <si>
     <t>Date</t>
   </si>
@@ -203,6 +203,30 @@
   </si>
   <si>
     <t>j'ai commencé le code de la bataille navale ,j'ai fait le menu</t>
+  </si>
+  <si>
+    <t>continuer le code</t>
+  </si>
+  <si>
+    <t>j'ai continuer le code de la bataille navale, j'ai commencer le jeu</t>
+  </si>
+  <si>
+    <t>Le prof a parlé sur Les Maquettes</t>
+  </si>
+  <si>
+    <t>nous avons fait une maquette par groupe de quatre</t>
+  </si>
+  <si>
+    <t>faire une maquette HUD</t>
+  </si>
+  <si>
+    <t>presenter la maquette HUD</t>
+  </si>
+  <si>
+    <t>j'ai presenter HUD et ecouter les autres qui on presenter le leur</t>
+  </si>
+  <si>
+    <t>faire une maquette HUD 2.0</t>
   </si>
 </sst>
 </file>
@@ -754,7 +778,7 @@
   <dimension ref="A1:O28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="86" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -764,10 +788,10 @@
     <col min="3" max="3" width="14.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.5546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="31.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="23.6640625" customWidth="1"/>
     <col min="8" max="8" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="52.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="56" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10.6640625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="10.109375" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="14.88671875" bestFit="1" customWidth="1"/>
@@ -839,7 +863,7 @@
         <v>10</v>
       </c>
       <c r="H3" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="I3" t="s">
         <v>48</v>
@@ -878,7 +902,7 @@
         <v>10</v>
       </c>
       <c r="H4" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="I4" t="s">
         <v>50</v>
@@ -917,7 +941,7 @@
         <v>10</v>
       </c>
       <c r="H5" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="I5" t="s">
         <v>51</v>
@@ -957,7 +981,7 @@
         <v>10</v>
       </c>
       <c r="H6" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="I6" t="s">
         <v>52</v>
@@ -990,7 +1014,7 @@
         <v>10</v>
       </c>
       <c r="H7" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="I7" t="s">
         <v>53</v>
@@ -1023,7 +1047,7 @@
         <v>10</v>
       </c>
       <c r="H8" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="I8" t="s">
         <v>53</v>
@@ -1036,7 +1060,7 @@
       </c>
       <c r="N8" s="9">
         <f>COUNTIF(Tableau1[Terminé],"OUI")</f>
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1052,7 +1076,7 @@
       </c>
       <c r="N9" s="9">
         <f>COUNTIF(Tableau1[Terminé],"NON")</f>
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
@@ -1131,21 +1155,69 @@
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A13" s="6"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
+      <c r="A13" s="6">
+        <v>44258</v>
+      </c>
+      <c r="B13" s="7">
+        <v>0.5625</v>
+      </c>
+      <c r="C13" s="7">
+        <v>0.59375</v>
+      </c>
       <c r="D13" s="7">
         <f>Tableau1[[#This Row],[Heure de fin]]-Tableau1[[#This Row],[Heure de début]]</f>
-        <v>0</v>
+        <v>3.125E-2</v>
+      </c>
+      <c r="E13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" t="s">
+        <v>56</v>
+      </c>
+      <c r="G13" t="s">
+        <v>10</v>
+      </c>
+      <c r="H13" t="s">
+        <v>24</v>
+      </c>
+      <c r="I13" t="s">
+        <v>57</v>
+      </c>
+      <c r="J13" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="6"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
+      <c r="A14" s="6">
+        <v>44258</v>
+      </c>
+      <c r="B14" s="7">
+        <v>0.59722222222222221</v>
+      </c>
+      <c r="C14" s="7">
+        <v>0.62847222222222221</v>
+      </c>
       <c r="D14" s="7">
         <f>Tableau1[[#This Row],[Heure de fin]]-Tableau1[[#This Row],[Heure de début]]</f>
-        <v>0</v>
+        <v>3.125E-2</v>
+      </c>
+      <c r="E14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" t="s">
+        <v>56</v>
+      </c>
+      <c r="G14" t="s">
+        <v>10</v>
+      </c>
+      <c r="H14" t="s">
+        <v>24</v>
+      </c>
+      <c r="I14" t="s">
+        <v>57</v>
+      </c>
+      <c r="J14" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1164,28 +1236,76 @@
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A16" s="6"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
+      <c r="A16" s="6">
+        <v>44259</v>
+      </c>
+      <c r="B16" s="7">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C16" s="7">
+        <v>0.35069444444444442</v>
+      </c>
       <c r="D16" s="7">
         <f>Tableau1[[#This Row],[Heure de fin]]-Tableau1[[#This Row],[Heure de début]]</f>
-        <v>0</v>
+        <v>1.7361111111111105E-2</v>
+      </c>
+      <c r="E16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" t="s">
+        <v>47</v>
+      </c>
+      <c r="G16" t="s">
+        <v>10</v>
+      </c>
+      <c r="H16" t="s">
+        <v>19</v>
+      </c>
+      <c r="I16" t="s">
+        <v>58</v>
+      </c>
+      <c r="J16" t="s">
+        <v>15</v>
       </c>
       <c r="M16" s="11" t="s">
         <v>19</v>
       </c>
       <c r="N16" s="14">
         <f>SUMIF(Tableau1[Module],M16,Tableau1[Colonne1])</f>
-        <v>0</v>
+        <v>0.26597222222222211</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A17" s="6"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
+      <c r="A17" s="6">
+        <v>44259</v>
+      </c>
+      <c r="B17" s="7">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="C17" s="7">
+        <v>0.36458333333333331</v>
+      </c>
       <c r="D17" s="7">
         <f>Tableau1[[#This Row],[Heure de fin]]-Tableau1[[#This Row],[Heure de début]]</f>
-        <v>0</v>
+        <v>1.041666666666663E-2</v>
+      </c>
+      <c r="E17" t="s">
+        <v>12</v>
+      </c>
+      <c r="F17" t="s">
+        <v>60</v>
+      </c>
+      <c r="G17" t="s">
+        <v>10</v>
+      </c>
+      <c r="H17" t="s">
+        <v>19</v>
+      </c>
+      <c r="I17" t="s">
+        <v>59</v>
+      </c>
+      <c r="J17" t="s">
+        <v>16</v>
       </c>
       <c r="M17" s="12" t="s">
         <v>20</v>
@@ -1196,12 +1316,36 @@
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A18" s="6"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
+      <c r="A18" s="6">
+        <v>44259</v>
+      </c>
+      <c r="B18" s="7">
+        <v>0.36805555555555558</v>
+      </c>
+      <c r="C18" s="7">
+        <v>0.39930555555555558</v>
+      </c>
       <c r="D18" s="7">
         <f>Tableau1[[#This Row],[Heure de fin]]-Tableau1[[#This Row],[Heure de début]]</f>
-        <v>0</v>
+        <v>3.125E-2</v>
+      </c>
+      <c r="E18" t="s">
+        <v>12</v>
+      </c>
+      <c r="F18" t="s">
+        <v>60</v>
+      </c>
+      <c r="G18" t="s">
+        <v>10</v>
+      </c>
+      <c r="H18" t="s">
+        <v>19</v>
+      </c>
+      <c r="I18" t="s">
+        <v>59</v>
+      </c>
+      <c r="J18" t="s">
+        <v>15</v>
       </c>
       <c r="M18" s="12" t="s">
         <v>21</v>
@@ -1212,12 +1356,36 @@
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A19" s="6"/>
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
+      <c r="A19" s="6">
+        <v>44259</v>
+      </c>
+      <c r="B19" s="7">
+        <v>0.40625</v>
+      </c>
+      <c r="C19" s="7">
+        <v>0.44444444444444442</v>
+      </c>
       <c r="D19" s="7">
         <f>Tableau1[[#This Row],[Heure de fin]]-Tableau1[[#This Row],[Heure de début]]</f>
-        <v>0</v>
+        <v>3.819444444444442E-2</v>
+      </c>
+      <c r="E19" t="s">
+        <v>12</v>
+      </c>
+      <c r="F19" t="s">
+        <v>61</v>
+      </c>
+      <c r="G19" t="s">
+        <v>10</v>
+      </c>
+      <c r="H19" t="s">
+        <v>19</v>
+      </c>
+      <c r="I19" t="s">
+        <v>62</v>
+      </c>
+      <c r="J19" t="s">
+        <v>15</v>
       </c>
       <c r="M19" s="12" t="s">
         <v>22</v>
@@ -1228,12 +1396,30 @@
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A20" s="6"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
+      <c r="A20" s="6">
+        <v>44259</v>
+      </c>
+      <c r="B20" s="7">
+        <v>0.4458333333333333</v>
+      </c>
+      <c r="C20" s="7">
+        <v>0.45833333333333331</v>
+      </c>
       <c r="D20" s="7">
         <f>Tableau1[[#This Row],[Heure de fin]]-Tableau1[[#This Row],[Heure de début]]</f>
-        <v>0</v>
+        <v>1.2500000000000011E-2</v>
+      </c>
+      <c r="E20" t="s">
+        <v>12</v>
+      </c>
+      <c r="F20" t="s">
+        <v>63</v>
+      </c>
+      <c r="G20" t="s">
+        <v>10</v>
+      </c>
+      <c r="H20" t="s">
+        <v>19</v>
       </c>
       <c r="M20" s="12" t="s">
         <v>23</v>
@@ -1256,7 +1442,7 @@
       </c>
       <c r="N21" s="15">
         <f>SUMIF(Tableau1[Module],M21,Tableau1[Colonne1])</f>
-        <v>0.21874999999999994</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.3">

--- a/Documents/Tableau de travail.xlsx
+++ b/Documents/Tableau de travail.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SandBox\Bataille-Navale\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{580B5419-6D39-49BA-9C1D-F388E28CA01D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A413C308-E8B4-40A4-A3CB-6B777AAB881B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="76">
   <si>
     <t>Date</t>
   </si>
@@ -227,6 +227,42 @@
   </si>
   <si>
     <t>faire une maquette HUD 2.0</t>
+  </si>
+  <si>
+    <t>Projet Bataille-Navale</t>
+  </si>
+  <si>
+    <t>j'ai modifier le visuel du menu principal</t>
+  </si>
+  <si>
+    <t>oui</t>
+  </si>
+  <si>
+    <t>j'ai avancer dans le jeu</t>
+  </si>
+  <si>
+    <t>j'ai modifier la grille</t>
+  </si>
+  <si>
+    <t xml:space="preserve">j'ai modifier </t>
+  </si>
+  <si>
+    <t>Le prof  a parler sur la planification d'un projet</t>
+  </si>
+  <si>
+    <t>on a fait dessiner des logo</t>
+  </si>
+  <si>
+    <t>le prof a expliquer qu'est ce que c'était et comment faire un sprint(Kanvas)</t>
+  </si>
+  <si>
+    <t>dessiner et decrire un logo</t>
+  </si>
+  <si>
+    <t>avancer programme bataille-Navale</t>
+  </si>
+  <si>
+    <t>j'ai fait le HUD et le sprint de la bataille-navale</t>
   </si>
 </sst>
 </file>
@@ -491,8 +527,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tableau1" displayName="Tableau1" ref="A1:K28" totalsRowShown="0">
-  <autoFilter ref="A1:K28" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tableau1" displayName="Tableau1" ref="A1:K48" totalsRowShown="0">
+  <autoFilter ref="A1:K48" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Date" dataDxfId="3"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Heure de début" dataDxfId="2"/>
@@ -775,10 +811,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O28"/>
+  <dimension ref="A1:O48"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="86" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="86" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -791,7 +827,7 @@
     <col min="6" max="6" width="31.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="23.6640625" customWidth="1"/>
     <col min="8" max="8" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="56" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="65" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10.6640625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="10.109375" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="14.88671875" bestFit="1" customWidth="1"/>
@@ -1060,7 +1096,7 @@
       </c>
       <c r="N8" s="9">
         <f>COUNTIF(Tableau1[Terminé],"OUI")</f>
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1272,7 +1308,7 @@
       </c>
       <c r="N16" s="14">
         <f>SUMIF(Tableau1[Module],M16,Tableau1[Colonne1])</f>
-        <v>0.26597222222222211</v>
+        <v>0.34583333333333327</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.3">
@@ -1442,16 +1478,40 @@
       </c>
       <c r="N21" s="15">
         <f>SUMIF(Tableau1[Module],M21,Tableau1[Colonne1])</f>
-        <v>0.125</v>
+        <v>0.30902777777777768</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A22" s="6"/>
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
+      <c r="A22" s="6">
+        <v>44262</v>
+      </c>
+      <c r="B22" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="C22" s="7">
+        <v>0.53819444444444442</v>
+      </c>
       <c r="D22" s="7">
         <f>Tableau1[[#This Row],[Heure de fin]]-Tableau1[[#This Row],[Heure de début]]</f>
-        <v>0</v>
+        <v>3.819444444444442E-2</v>
+      </c>
+      <c r="E22" t="s">
+        <v>12</v>
+      </c>
+      <c r="F22" t="s">
+        <v>64</v>
+      </c>
+      <c r="G22" t="s">
+        <v>9</v>
+      </c>
+      <c r="H22" t="s">
+        <v>24</v>
+      </c>
+      <c r="I22" t="s">
+        <v>65</v>
+      </c>
+      <c r="J22" t="s">
+        <v>66</v>
       </c>
       <c r="M22" s="12" t="s">
         <v>25</v>
@@ -1462,12 +1522,33 @@
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A23" s="6"/>
-      <c r="B23" s="7"/>
-      <c r="C23" s="7"/>
+      <c r="A23" s="6">
+        <v>44262</v>
+      </c>
+      <c r="B23" s="7">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="C23" s="7">
+        <v>0.66666666666666663</v>
+      </c>
       <c r="D23" s="7">
         <f>Tableau1[[#This Row],[Heure de fin]]-Tableau1[[#This Row],[Heure de début]]</f>
-        <v>0</v>
+        <v>8.3333333333333259E-2</v>
+      </c>
+      <c r="E23" t="s">
+        <v>12</v>
+      </c>
+      <c r="F23" t="s">
+        <v>64</v>
+      </c>
+      <c r="G23" t="s">
+        <v>9</v>
+      </c>
+      <c r="H23" t="s">
+        <v>24</v>
+      </c>
+      <c r="I23" t="s">
+        <v>67</v>
       </c>
       <c r="M23" s="12" t="s">
         <v>26</v>
@@ -1494,12 +1575,33 @@
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A25" s="6"/>
-      <c r="B25" s="7"/>
-      <c r="C25" s="7"/>
+      <c r="A25" s="6">
+        <v>44265</v>
+      </c>
+      <c r="B25" s="7">
+        <v>0.5625</v>
+      </c>
+      <c r="C25" s="7">
+        <v>0.59375</v>
+      </c>
       <c r="D25" s="7">
         <f>Tableau1[[#This Row],[Heure de fin]]-Tableau1[[#This Row],[Heure de début]]</f>
-        <v>0</v>
+        <v>3.125E-2</v>
+      </c>
+      <c r="E25" t="s">
+        <v>12</v>
+      </c>
+      <c r="F25" t="s">
+        <v>64</v>
+      </c>
+      <c r="G25" t="s">
+        <v>10</v>
+      </c>
+      <c r="H25" t="s">
+        <v>24</v>
+      </c>
+      <c r="I25" t="s">
+        <v>69</v>
       </c>
       <c r="M25" s="12" t="s">
         <v>28</v>
@@ -1510,12 +1612,33 @@
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A26" s="6"/>
-      <c r="B26" s="7"/>
-      <c r="C26" s="7"/>
+      <c r="A26" s="6">
+        <v>44265</v>
+      </c>
+      <c r="B26" s="7">
+        <v>0.59722222222222221</v>
+      </c>
+      <c r="C26" s="7">
+        <v>0.62847222222222221</v>
+      </c>
       <c r="D26" s="7">
         <f>Tableau1[[#This Row],[Heure de fin]]-Tableau1[[#This Row],[Heure de début]]</f>
-        <v>0</v>
+        <v>3.125E-2</v>
+      </c>
+      <c r="E26" t="s">
+        <v>12</v>
+      </c>
+      <c r="F26" t="s">
+        <v>64</v>
+      </c>
+      <c r="G26" t="s">
+        <v>10</v>
+      </c>
+      <c r="H26" t="s">
+        <v>24</v>
+      </c>
+      <c r="I26" t="s">
+        <v>68</v>
       </c>
       <c r="M26" s="12" t="s">
         <v>29</v>
@@ -1542,18 +1665,303 @@
       </c>
     </row>
     <row r="28" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="6"/>
-      <c r="B28" s="7"/>
-      <c r="C28" s="7"/>
+      <c r="A28" s="6">
+        <v>44238</v>
+      </c>
+      <c r="B28" s="7">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C28" s="7">
+        <v>0.34375</v>
+      </c>
       <c r="D28" s="7">
         <f>Tableau1[[#This Row],[Heure de fin]]-Tableau1[[#This Row],[Heure de début]]</f>
-        <v>0</v>
+        <v>1.0416666666666685E-2</v>
+      </c>
+      <c r="E28" t="s">
+        <v>11</v>
+      </c>
+      <c r="F28" t="s">
+        <v>47</v>
+      </c>
+      <c r="G28" t="s">
+        <v>10</v>
+      </c>
+      <c r="H28" t="s">
+        <v>19</v>
+      </c>
+      <c r="I28" t="s">
+        <v>70</v>
       </c>
       <c r="M28" s="13" t="s">
         <v>31</v>
       </c>
       <c r="N28" s="16">
         <f>SUMIF(Tableau1[Module],M28,Tableau1[Colonne1])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A29" s="6">
+        <v>44238</v>
+      </c>
+      <c r="B29" s="7">
+        <v>0.34375</v>
+      </c>
+      <c r="C29" s="7">
+        <v>0.36458333333333331</v>
+      </c>
+      <c r="D29" s="7">
+        <f>Tableau1[[#This Row],[Heure de fin]]-Tableau1[[#This Row],[Heure de début]]</f>
+        <v>2.0833333333333315E-2</v>
+      </c>
+      <c r="E29" t="s">
+        <v>12</v>
+      </c>
+      <c r="F29" t="s">
+        <v>73</v>
+      </c>
+      <c r="G29" t="s">
+        <v>10</v>
+      </c>
+      <c r="H29" t="s">
+        <v>19</v>
+      </c>
+      <c r="I29" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A30" s="6">
+        <v>44238</v>
+      </c>
+      <c r="B30" s="7">
+        <v>0.36805555555555558</v>
+      </c>
+      <c r="C30" s="7">
+        <v>0.37847222222222227</v>
+      </c>
+      <c r="D30" s="7">
+        <f>Tableau1[[#This Row],[Heure de fin]]-Tableau1[[#This Row],[Heure de début]]</f>
+        <v>1.0416666666666685E-2</v>
+      </c>
+      <c r="E30" t="s">
+        <v>11</v>
+      </c>
+      <c r="F30" t="s">
+        <v>47</v>
+      </c>
+      <c r="G30" t="s">
+        <v>10</v>
+      </c>
+      <c r="H30" t="s">
+        <v>19</v>
+      </c>
+      <c r="I30" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A31" s="6">
+        <v>44238</v>
+      </c>
+      <c r="B31" s="7">
+        <v>0.3923611111111111</v>
+      </c>
+      <c r="C31" s="7">
+        <v>0.39930555555555558</v>
+      </c>
+      <c r="D31" s="7">
+        <f>Tableau1[[#This Row],[Heure de fin]]-Tableau1[[#This Row],[Heure de début]]</f>
+        <v>6.9444444444444753E-3</v>
+      </c>
+      <c r="E31" t="s">
+        <v>12</v>
+      </c>
+      <c r="F31" t="s">
+        <v>64</v>
+      </c>
+      <c r="G31" t="s">
+        <v>10</v>
+      </c>
+      <c r="H31" t="s">
+        <v>19</v>
+      </c>
+      <c r="I31" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A32" s="6">
+        <v>44238</v>
+      </c>
+      <c r="B32" s="7">
+        <v>0.40972222222222227</v>
+      </c>
+      <c r="C32" s="7">
+        <v>0.44097222222222227</v>
+      </c>
+      <c r="D32" s="7">
+        <f>Tableau1[[#This Row],[Heure de fin]]-Tableau1[[#This Row],[Heure de début]]</f>
+        <v>3.125E-2</v>
+      </c>
+      <c r="E32" t="s">
+        <v>12</v>
+      </c>
+      <c r="F32" t="s">
+        <v>64</v>
+      </c>
+      <c r="G32" t="s">
+        <v>10</v>
+      </c>
+      <c r="H32" t="s">
+        <v>19</v>
+      </c>
+      <c r="I32" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" s="6"/>
+      <c r="B33" s="7"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="7">
+        <f>Tableau1[[#This Row],[Heure de fin]]-Tableau1[[#This Row],[Heure de début]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" s="6"/>
+      <c r="B34" s="7"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="7">
+        <f>Tableau1[[#This Row],[Heure de fin]]-Tableau1[[#This Row],[Heure de début]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" s="6"/>
+      <c r="B35" s="7"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="7">
+        <f>Tableau1[[#This Row],[Heure de fin]]-Tableau1[[#This Row],[Heure de début]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" s="6"/>
+      <c r="B36" s="7"/>
+      <c r="C36" s="7"/>
+      <c r="D36" s="7">
+        <f>Tableau1[[#This Row],[Heure de fin]]-Tableau1[[#This Row],[Heure de début]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" s="6"/>
+      <c r="B37" s="7"/>
+      <c r="C37" s="7"/>
+      <c r="D37" s="7">
+        <f>Tableau1[[#This Row],[Heure de fin]]-Tableau1[[#This Row],[Heure de début]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" s="6"/>
+      <c r="B38" s="7"/>
+      <c r="C38" s="7"/>
+      <c r="D38" s="7">
+        <f>Tableau1[[#This Row],[Heure de fin]]-Tableau1[[#This Row],[Heure de début]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" s="6"/>
+      <c r="B39" s="7"/>
+      <c r="C39" s="7"/>
+      <c r="D39" s="7">
+        <f>Tableau1[[#This Row],[Heure de fin]]-Tableau1[[#This Row],[Heure de début]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40" s="6"/>
+      <c r="B40" s="7"/>
+      <c r="C40" s="7"/>
+      <c r="D40" s="7">
+        <f>Tableau1[[#This Row],[Heure de fin]]-Tableau1[[#This Row],[Heure de début]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" s="6"/>
+      <c r="B41" s="7"/>
+      <c r="C41" s="7"/>
+      <c r="D41" s="7">
+        <f>Tableau1[[#This Row],[Heure de fin]]-Tableau1[[#This Row],[Heure de début]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42" s="6"/>
+      <c r="B42" s="7"/>
+      <c r="C42" s="7"/>
+      <c r="D42" s="7">
+        <f>Tableau1[[#This Row],[Heure de fin]]-Tableau1[[#This Row],[Heure de début]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43" s="6"/>
+      <c r="B43" s="7"/>
+      <c r="C43" s="7"/>
+      <c r="D43" s="7">
+        <f>Tableau1[[#This Row],[Heure de fin]]-Tableau1[[#This Row],[Heure de début]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44" s="6"/>
+      <c r="B44" s="7"/>
+      <c r="C44" s="7"/>
+      <c r="D44" s="7">
+        <f>Tableau1[[#This Row],[Heure de fin]]-Tableau1[[#This Row],[Heure de début]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45" s="6"/>
+      <c r="B45" s="7"/>
+      <c r="C45" s="7"/>
+      <c r="D45" s="7">
+        <f>Tableau1[[#This Row],[Heure de fin]]-Tableau1[[#This Row],[Heure de début]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46" s="6"/>
+      <c r="B46" s="7"/>
+      <c r="C46" s="7"/>
+      <c r="D46" s="7">
+        <f>Tableau1[[#This Row],[Heure de fin]]-Tableau1[[#This Row],[Heure de début]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47" s="6"/>
+      <c r="B47" s="7"/>
+      <c r="C47" s="7"/>
+      <c r="D47" s="7">
+        <f>Tableau1[[#This Row],[Heure de fin]]-Tableau1[[#This Row],[Heure de début]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A48" s="6"/>
+      <c r="B48" s="7"/>
+      <c r="C48" s="7"/>
+      <c r="D48" s="7">
+        <f>Tableau1[[#This Row],[Heure de fin]]-Tableau1[[#This Row],[Heure de début]]</f>
         <v>0</v>
       </c>
     </row>
@@ -1571,25 +1979,25 @@
           <x14:formula1>
             <xm:f>listes!$B$3:$B$4</xm:f>
           </x14:formula1>
-          <xm:sqref>G2:G28</xm:sqref>
+          <xm:sqref>G2:G48</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000001000000}">
           <x14:formula1>
             <xm:f>listes!$F$3:$F$4</xm:f>
           </x14:formula1>
-          <xm:sqref>J2:J28</xm:sqref>
+          <xm:sqref>J2:J48</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000002000000}">
           <x14:formula1>
             <xm:f>listes!$H$3:$H$15</xm:f>
           </x14:formula1>
-          <xm:sqref>H2:H28</xm:sqref>
+          <xm:sqref>H2:H48</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000003000000}">
           <x14:formula1>
             <xm:f>listes!$D$3:$D$7</xm:f>
           </x14:formula1>
-          <xm:sqref>E2:E28</xm:sqref>
+          <xm:sqref>E2:E48</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/Documents/Tableau de travail.xlsx
+++ b/Documents/Tableau de travail.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SandBox\Bataille-Navale\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A413C308-E8B4-40A4-A3CB-6B777AAB881B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{992EAAF9-E3A3-420E-9C1D-BDBB53A02A9D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="75">
   <si>
     <t>Date</t>
   </si>
@@ -233,9 +233,6 @@
   </si>
   <si>
     <t>j'ai modifier le visuel du menu principal</t>
-  </si>
-  <si>
-    <t>oui</t>
   </si>
   <si>
     <t>j'ai avancer dans le jeu</t>
@@ -814,7 +811,7 @@
   <dimension ref="A1:O48"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScale="86" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="I33" sqref="I33"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1511,7 +1508,7 @@
         <v>65</v>
       </c>
       <c r="J22" t="s">
-        <v>66</v>
+        <v>15</v>
       </c>
       <c r="M22" s="12" t="s">
         <v>25</v>
@@ -1548,7 +1545,7 @@
         <v>24</v>
       </c>
       <c r="I23" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M23" s="12" t="s">
         <v>26</v>
@@ -1601,7 +1598,7 @@
         <v>24</v>
       </c>
       <c r="I25" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="M25" s="12" t="s">
         <v>28</v>
@@ -1638,7 +1635,7 @@
         <v>24</v>
       </c>
       <c r="I26" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="M26" s="12" t="s">
         <v>29</v>
@@ -1666,7 +1663,7 @@
     </row>
     <row r="28" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="6">
-        <v>44238</v>
+        <v>44266</v>
       </c>
       <c r="B28" s="7">
         <v>0.33333333333333331</v>
@@ -1691,7 +1688,7 @@
         <v>19</v>
       </c>
       <c r="I28" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="M28" s="13" t="s">
         <v>31</v>
@@ -1703,7 +1700,7 @@
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A29" s="6">
-        <v>44238</v>
+        <v>44266</v>
       </c>
       <c r="B29" s="7">
         <v>0.34375</v>
@@ -1719,7 +1716,7 @@
         <v>12</v>
       </c>
       <c r="F29" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G29" t="s">
         <v>10</v>
@@ -1728,12 +1725,12 @@
         <v>19</v>
       </c>
       <c r="I29" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A30" s="6">
-        <v>44238</v>
+        <v>44266</v>
       </c>
       <c r="B30" s="7">
         <v>0.36805555555555558</v>
@@ -1758,12 +1755,12 @@
         <v>19</v>
       </c>
       <c r="I30" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A31" s="6">
-        <v>44238</v>
+        <v>44266</v>
       </c>
       <c r="B31" s="7">
         <v>0.3923611111111111</v>
@@ -1788,12 +1785,12 @@
         <v>19</v>
       </c>
       <c r="I31" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A32" s="6">
-        <v>44238</v>
+        <v>44266</v>
       </c>
       <c r="B32" s="7">
         <v>0.40972222222222227</v>
@@ -1818,7 +1815,7 @@
         <v>19</v>
       </c>
       <c r="I32" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
